--- a/assets/files/submission/metabobank/MetaboBank_MALDI-MS_metadata.xlsx
+++ b/assets/files/submission/metabobank/MetaboBank_MALDI-MS_metadata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="36615" windowHeight="12345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="10236"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="12" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="256">
   <si>
     <t>Study Title</t>
   </si>
@@ -769,10 +769,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Update definitions to MB-IDF-version=2022-02-18 and MB-SDRF-version=2022-02-18.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Comment[Related study]</t>
   </si>
   <si>
@@ -884,6 +880,12 @@
   <si>
     <t>MALDI-MS</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>matrix-assisted laser desorption-ionisation mass spectrometry</t>
+  </si>
+  <si>
+    <t>Update definitions to MB-IDF-version=2022-06-29 and MB-SDRF-version=2022-02-18.</t>
   </si>
 </sst>
 </file>
@@ -1013,7 +1015,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1063,6 +1065,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" customBuiltin="1"/>
@@ -1393,109 +1398,109 @@
   <dimension ref="A1:B91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A20" sqref="A20:B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="126.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.125" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="8.875" style="4"/>
+    <col min="1" max="1" width="126.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" s="32" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="4" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="4" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="4" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B16" s="7">
-        <v>44645</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B16" s="33">
+        <v>44741</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="7"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>220</v>
       </c>
       <c r="B18" s="7"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>221</v>
       </c>
@@ -1503,232 +1508,232 @@
         <v>44509</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="B20" s="7">
-        <v>44645</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+        <v>44741</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="7"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="7"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="7"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="6"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="6"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="6"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="6"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
     </row>
   </sheetData>
@@ -1748,12 +1753,14 @@
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24:D29"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="38.5" defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="38.44140625" defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="38.5" style="10"/>
+    <col min="1" max="1" width="38.44140625" style="10"/>
+    <col min="2" max="2" width="63.21875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="38.44140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1764,19 +1771,19 @@
     </row>
     <row r="2" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="9"/>
     </row>
-    <row r="4" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>192</v>
       </c>
@@ -1784,24 +1791,24 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="11"/>
     </row>
-    <row r="8" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="11"/>
     </row>
-    <row r="10" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>2</v>
       </c>
@@ -1812,7 +1819,7 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>3</v>
       </c>
@@ -1823,15 +1830,15 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="12"/>
     </row>
-    <row r="14" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>5</v>
       </c>
@@ -1842,7 +1849,7 @@
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>6</v>
       </c>
@@ -1853,7 +1860,7 @@
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>7</v>
       </c>
@@ -1864,7 +1871,7 @@
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>188</v>
       </c>
@@ -1875,7 +1882,7 @@
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>8</v>
       </c>
@@ -1886,15 +1893,15 @@
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>9</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>10</v>
       </c>
@@ -1905,7 +1912,7 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>11</v>
       </c>
@@ -1916,10 +1923,10 @@
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="12"/>
     </row>
-    <row r="24" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
         <v>12</v>
       </c>
@@ -1939,7 +1946,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>13</v>
       </c>
@@ -1959,7 +1966,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
         <v>14</v>
       </c>
@@ -1969,7 +1976,7 @@
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
     </row>
-    <row r="27" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
         <v>15</v>
       </c>
@@ -1983,7 +1990,7 @@
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
     </row>
-    <row r="28" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="24" t="s">
         <v>16</v>
       </c>
@@ -1993,7 +2000,7 @@
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
     </row>
-    <row r="29" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="24" t="s">
         <v>17</v>
       </c>
@@ -2003,35 +2010,35 @@
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
     </row>
-    <row r="30" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
     </row>
-    <row r="31" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="21" t="s">
         <v>23</v>
       </c>
@@ -2042,46 +2049,48 @@
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
     </row>
-    <row r="40" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B40" s="11"/>
+      <c r="B40" s="11" t="s">
+        <v>254</v>
+      </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
     </row>
-    <row r="41" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
         <v>206</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
         <v>27</v>
       </c>
@@ -2100,7 +2109,7 @@
   </colBreaks>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>ADMIN!$A$2:$A$24</xm:f>
@@ -2117,7 +2126,13 @@
           <x14:formula1>
             <xm:f>ADMIN!$C$2:$C$26</xm:f>
           </x14:formula1>
-          <xm:sqref>B40:G40</xm:sqref>
+          <xm:sqref>C40:G40</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>ADMIN!$C$2:$C$27</xm:f>
+          </x14:formula1>
+          <xm:sqref>B40</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2136,33 +2151,33 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="48.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="48.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.625" style="10"/>
+    <col min="1" max="1" width="48.6640625" style="10"/>
     <col min="2" max="2" width="34" style="10" customWidth="1"/>
-    <col min="3" max="3" width="34.375" style="10" customWidth="1"/>
-    <col min="4" max="4" width="27.625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="24.5" style="10" customWidth="1"/>
-    <col min="6" max="16384" width="48.625" style="10"/>
+    <col min="3" max="3" width="34.33203125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" style="10" customWidth="1"/>
+    <col min="6" max="16384" width="48.6640625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>207</v>
       </c>
       <c r="B1" s="9"/>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B2" s="9"/>
     </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
     </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>139</v>
       </c>
@@ -2173,7 +2188,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>189</v>
       </c>
@@ -2182,7 +2197,7 @@
       </c>
       <c r="C5" s="9"/>
     </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>190</v>
       </c>
@@ -2191,7 +2206,7 @@
       </c>
       <c r="C6" s="9"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>0</v>
       </c>
@@ -2202,7 +2217,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>1</v>
       </c>
@@ -2213,7 +2228,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>2</v>
       </c>
@@ -2224,7 +2239,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>3</v>
       </c>
@@ -2235,7 +2250,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>4</v>
       </c>
@@ -2246,10 +2261,10 @@
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="12"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>5</v>
       </c>
@@ -2266,7 +2281,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>6</v>
       </c>
@@ -2283,12 +2298,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>188</v>
       </c>
@@ -2296,7 +2311,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>8</v>
       </c>
@@ -2304,21 +2319,21 @@
         <v>135</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>10</v>
       </c>
@@ -2326,7 +2341,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
         <v>11</v>
       </c>
@@ -2334,10 +2349,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C23" s="14"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
         <v>12</v>
       </c>
@@ -2345,7 +2360,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
         <v>13</v>
       </c>
@@ -2353,7 +2368,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
         <v>14</v>
       </c>
@@ -2361,7 +2376,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
         <v>15</v>
       </c>
@@ -2369,7 +2384,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
         <v>16</v>
       </c>
@@ -2377,7 +2392,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
         <v>17</v>
       </c>
@@ -2385,35 +2400,35 @@
         <v>158</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
         <v>23</v>
       </c>
@@ -2421,7 +2436,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
         <v>24</v>
       </c>
@@ -2429,41 +2444,41 @@
         <v>161</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
         <v>25</v>
       </c>
       <c r="B42" s="10" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="B44" s="10" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="25" t="s">
-        <v>224</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
         <v>27</v>
       </c>
@@ -2486,53 +2501,53 @@
       <selection activeCell="I1" sqref="I1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="24.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.375" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.375" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.77734375" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="33.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="36.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="31.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="34.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="32.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="31.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="37.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="26.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="29.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="36.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="34.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="32.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="31.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="37.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="26.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="29.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="45" style="3" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="28.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="24.875" style="3"/>
+    <col min="27" max="27" width="28.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="24.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" ht="15" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>28</v>
       </c>
@@ -2618,7 +2633,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11" t="s">
@@ -2658,7 +2673,7 @@
       <c r="AA5" s="11"/>
       <c r="AB5" s="11"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11" t="s">
@@ -2698,7 +2713,7 @@
       <c r="AA6" s="11"/>
       <c r="AB6" s="11"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11" t="s">
@@ -2738,7 +2753,7 @@
       <c r="AA7" s="11"/>
       <c r="AB7" s="11"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="17"/>
@@ -2768,7 +2783,7 @@
       <c r="AA8" s="11"/>
       <c r="AB8" s="11"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="17"/>
@@ -2798,7 +2813,7 @@
       <c r="AA9" s="11"/>
       <c r="AB9" s="11"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="17"/>
@@ -2828,7 +2843,7 @@
       <c r="AA10" s="11"/>
       <c r="AB10" s="11"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="17"/>
@@ -2858,7 +2873,7 @@
       <c r="AA11" s="11"/>
       <c r="AB11" s="11"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="17"/>
@@ -2888,7 +2903,7 @@
       <c r="AA12" s="11"/>
       <c r="AB12" s="11"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="17"/>
@@ -2918,7 +2933,7 @@
       <c r="AA13" s="11"/>
       <c r="AB13" s="11"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="17"/>
@@ -2948,7 +2963,7 @@
       <c r="AA14" s="11"/>
       <c r="AB14" s="11"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="17"/>
@@ -2978,7 +2993,7 @@
       <c r="AA15" s="11"/>
       <c r="AB15" s="11"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="17"/>
@@ -3008,7 +3023,7 @@
       <c r="AA16" s="11"/>
       <c r="AB16" s="11"/>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="17"/>
@@ -3038,7 +3053,7 @@
       <c r="AA17" s="11"/>
       <c r="AB17" s="11"/>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="17"/>
@@ -3068,7 +3083,7 @@
       <c r="AA18" s="11"/>
       <c r="AB18" s="11"/>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="17"/>
@@ -3098,7 +3113,7 @@
       <c r="AA19" s="11"/>
       <c r="AB19" s="11"/>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="17"/>
@@ -3128,7 +3143,7 @@
       <c r="AA20" s="11"/>
       <c r="AB20" s="11"/>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="17"/>
@@ -3158,7 +3173,7 @@
       <c r="AA21" s="11"/>
       <c r="AB21" s="11"/>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="17"/>
@@ -3188,7 +3203,7 @@
       <c r="AA22" s="11"/>
       <c r="AB22" s="11"/>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="17"/>
@@ -3218,7 +3233,7 @@
       <c r="AA23" s="11"/>
       <c r="AB23" s="11"/>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="17"/>
@@ -3248,7 +3263,7 @@
       <c r="AA24" s="11"/>
       <c r="AB24" s="11"/>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="17"/>
@@ -3278,7 +3293,7 @@
       <c r="AA25" s="11"/>
       <c r="AB25" s="11"/>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="17"/>
@@ -3308,7 +3323,7 @@
       <c r="AA26" s="11"/>
       <c r="AB26" s="11"/>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="17"/>
@@ -3338,7 +3353,7 @@
       <c r="AA27" s="11"/>
       <c r="AB27" s="11"/>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="17"/>
@@ -3368,7 +3383,7 @@
       <c r="AA28" s="11"/>
       <c r="AB28" s="11"/>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="17"/>
@@ -3398,7 +3413,7 @@
       <c r="AA29" s="11"/>
       <c r="AB29" s="11"/>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="17"/>
@@ -3428,7 +3443,7 @@
       <c r="AA30" s="11"/>
       <c r="AB30" s="11"/>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="17"/>
@@ -3458,7 +3473,7 @@
       <c r="AA31" s="11"/>
       <c r="AB31" s="11"/>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="17"/>
@@ -3488,7 +3503,7 @@
       <c r="AA32" s="11"/>
       <c r="AB32" s="11"/>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="17"/>
@@ -3518,7 +3533,7 @@
       <c r="AA33" s="11"/>
       <c r="AB33" s="11"/>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="17"/>
@@ -3548,7 +3563,7 @@
       <c r="AA34" s="11"/>
       <c r="AB34" s="11"/>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="17"/>
@@ -3578,7 +3593,7 @@
       <c r="AA35" s="11"/>
       <c r="AB35" s="11"/>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="17"/>
@@ -3608,7 +3623,7 @@
       <c r="AA36" s="11"/>
       <c r="AB36" s="11"/>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="17"/>
@@ -3638,7 +3653,7 @@
       <c r="AA37" s="11"/>
       <c r="AB37" s="11"/>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="17"/>
@@ -3668,7 +3683,7 @@
       <c r="AA38" s="11"/>
       <c r="AB38" s="11"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="17"/>
@@ -3698,7 +3713,7 @@
       <c r="AA39" s="11"/>
       <c r="AB39" s="11"/>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="17"/>
@@ -3728,7 +3743,7 @@
       <c r="AA40" s="11"/>
       <c r="AB40" s="11"/>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="17"/>
@@ -3758,7 +3773,7 @@
       <c r="AA41" s="11"/>
       <c r="AB41" s="11"/>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="17"/>
@@ -3788,7 +3803,7 @@
       <c r="AA42" s="11"/>
       <c r="AB42" s="11"/>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="17"/>
@@ -3818,7 +3833,7 @@
       <c r="AA43" s="11"/>
       <c r="AB43" s="11"/>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="17"/>
@@ -3848,7 +3863,7 @@
       <c r="AA44" s="11"/>
       <c r="AB44" s="11"/>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="17"/>
@@ -3878,7 +3893,7 @@
       <c r="AA45" s="11"/>
       <c r="AB45" s="11"/>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="17"/>
@@ -3908,7 +3923,7 @@
       <c r="AA46" s="11"/>
       <c r="AB46" s="11"/>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="17"/>
@@ -3938,7 +3953,7 @@
       <c r="AA47" s="11"/>
       <c r="AB47" s="11"/>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="17"/>
@@ -3968,7 +3983,7 @@
       <c r="AA48" s="11"/>
       <c r="AB48" s="11"/>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="17"/>
@@ -3998,7 +4013,7 @@
       <c r="AA49" s="11"/>
       <c r="AB49" s="11"/>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="17"/>
@@ -4028,7 +4043,7 @@
       <c r="AA50" s="11"/>
       <c r="AB50" s="11"/>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="17"/>
@@ -4058,7 +4073,7 @@
       <c r="AA51" s="11"/>
       <c r="AB51" s="11"/>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="17"/>
@@ -4088,7 +4103,7 @@
       <c r="AA52" s="11"/>
       <c r="AB52" s="11"/>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="17"/>
@@ -4118,7 +4133,7 @@
       <c r="AA53" s="11"/>
       <c r="AB53" s="11"/>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="17"/>
@@ -4148,7 +4163,7 @@
       <c r="AA54" s="11"/>
       <c r="AB54" s="11"/>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="17"/>
@@ -4178,7 +4193,7 @@
       <c r="AA55" s="11"/>
       <c r="AB55" s="11"/>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="17"/>
@@ -4208,7 +4223,7 @@
       <c r="AA56" s="11"/>
       <c r="AB56" s="11"/>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="17"/>
@@ -4238,7 +4253,7 @@
       <c r="AA57" s="11"/>
       <c r="AB57" s="11"/>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="17"/>
@@ -4268,7 +4283,7 @@
       <c r="AA58" s="11"/>
       <c r="AB58" s="11"/>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="17"/>
@@ -4298,7 +4313,7 @@
       <c r="AA59" s="11"/>
       <c r="AB59" s="11"/>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="17"/>
@@ -4328,7 +4343,7 @@
       <c r="AA60" s="11"/>
       <c r="AB60" s="11"/>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="17"/>
@@ -4358,7 +4373,7 @@
       <c r="AA61" s="11"/>
       <c r="AB61" s="11"/>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="17"/>
@@ -4388,7 +4403,7 @@
       <c r="AA62" s="11"/>
       <c r="AB62" s="11"/>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="17"/>
@@ -4418,7 +4433,7 @@
       <c r="AA63" s="11"/>
       <c r="AB63" s="11"/>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="17"/>
@@ -4448,7 +4463,7 @@
       <c r="AA64" s="11"/>
       <c r="AB64" s="11"/>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="17"/>
@@ -4478,7 +4493,7 @@
       <c r="AA65" s="11"/>
       <c r="AB65" s="11"/>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="18"/>
@@ -4508,7 +4523,7 @@
       <c r="AA66" s="11"/>
       <c r="AB66" s="11"/>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="18"/>
@@ -4538,7 +4553,7 @@
       <c r="AA67" s="11"/>
       <c r="AB67" s="11"/>
     </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="18"/>
@@ -4568,7 +4583,7 @@
       <c r="AA68" s="11"/>
       <c r="AB68" s="11"/>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="18"/>
@@ -4598,7 +4613,7 @@
       <c r="AA69" s="11"/>
       <c r="AB69" s="11"/>
     </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="18"/>
@@ -4628,7 +4643,7 @@
       <c r="AA70" s="11"/>
       <c r="AB70" s="11"/>
     </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="18"/>
@@ -4658,7 +4673,7 @@
       <c r="AA71" s="11"/>
       <c r="AB71" s="11"/>
     </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="18"/>
@@ -4688,7 +4703,7 @@
       <c r="AA72" s="11"/>
       <c r="AB72" s="11"/>
     </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="18"/>
@@ -4718,7 +4733,7 @@
       <c r="AA73" s="11"/>
       <c r="AB73" s="11"/>
     </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="18"/>
@@ -4748,7 +4763,7 @@
       <c r="AA74" s="11"/>
       <c r="AB74" s="11"/>
     </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="18"/>
@@ -4778,7 +4793,7 @@
       <c r="AA75" s="11"/>
       <c r="AB75" s="11"/>
     </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="18"/>
@@ -4808,7 +4823,7 @@
       <c r="AA76" s="11"/>
       <c r="AB76" s="11"/>
     </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="18"/>
@@ -4838,7 +4853,7 @@
       <c r="AA77" s="11"/>
       <c r="AB77" s="11"/>
     </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="18"/>
@@ -4868,7 +4883,7 @@
       <c r="AA78" s="11"/>
       <c r="AB78" s="11"/>
     </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="18"/>
@@ -4898,7 +4913,7 @@
       <c r="AA79" s="11"/>
       <c r="AB79" s="11"/>
     </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="18"/>
@@ -4928,7 +4943,7 @@
       <c r="AA80" s="11"/>
       <c r="AB80" s="11"/>
     </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="18"/>
@@ -4958,7 +4973,7 @@
       <c r="AA81" s="11"/>
       <c r="AB81" s="11"/>
     </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="18"/>
@@ -4988,7 +5003,7 @@
       <c r="AA82" s="11"/>
       <c r="AB82" s="11"/>
     </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="18"/>
@@ -5018,7 +5033,7 @@
       <c r="AA83" s="11"/>
       <c r="AB83" s="11"/>
     </row>
-    <row r="84" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="18"/>
@@ -5048,7 +5063,7 @@
       <c r="AA84" s="11"/>
       <c r="AB84" s="11"/>
     </row>
-    <row r="85" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="18"/>
@@ -5078,7 +5093,7 @@
       <c r="AA85" s="11"/>
       <c r="AB85" s="11"/>
     </row>
-    <row r="86" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="18"/>
@@ -5108,7 +5123,7 @@
       <c r="AA86" s="11"/>
       <c r="AB86" s="11"/>
     </row>
-    <row r="87" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="18"/>
@@ -5138,7 +5153,7 @@
       <c r="AA87" s="11"/>
       <c r="AB87" s="11"/>
     </row>
-    <row r="88" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="18"/>
@@ -5168,7 +5183,7 @@
       <c r="AA88" s="11"/>
       <c r="AB88" s="11"/>
     </row>
-    <row r="89" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="18"/>
@@ -5198,7 +5213,7 @@
       <c r="AA89" s="11"/>
       <c r="AB89" s="11"/>
     </row>
-    <row r="90" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="18"/>
@@ -5228,7 +5243,7 @@
       <c r="AA90" s="11"/>
       <c r="AB90" s="11"/>
     </row>
-    <row r="91" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="18"/>
@@ -5258,7 +5273,7 @@
       <c r="AA91" s="11"/>
       <c r="AB91" s="11"/>
     </row>
-    <row r="92" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="18"/>
@@ -5288,7 +5303,7 @@
       <c r="AA92" s="11"/>
       <c r="AB92" s="11"/>
     </row>
-    <row r="93" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="18"/>
@@ -5318,7 +5333,7 @@
       <c r="AA93" s="11"/>
       <c r="AB93" s="11"/>
     </row>
-    <row r="94" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="18"/>
@@ -5348,7 +5363,7 @@
       <c r="AA94" s="11"/>
       <c r="AB94" s="11"/>
     </row>
-    <row r="95" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="18"/>
@@ -5378,7 +5393,7 @@
       <c r="AA95" s="11"/>
       <c r="AB95" s="11"/>
     </row>
-    <row r="96" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="18"/>
@@ -5408,7 +5423,7 @@
       <c r="AA96" s="11"/>
       <c r="AB96" s="11"/>
     </row>
-    <row r="97" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="18"/>
@@ -5438,7 +5453,7 @@
       <c r="AA97" s="11"/>
       <c r="AB97" s="11"/>
     </row>
-    <row r="98" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="18"/>
@@ -5468,7 +5483,7 @@
       <c r="AA98" s="11"/>
       <c r="AB98" s="11"/>
     </row>
-    <row r="99" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="18"/>
@@ -5498,7 +5513,7 @@
       <c r="AA99" s="11"/>
       <c r="AB99" s="11"/>
     </row>
-    <row r="100" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="18"/>
@@ -5528,7 +5543,7 @@
       <c r="AA100" s="11"/>
       <c r="AB100" s="11"/>
     </row>
-    <row r="101" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="18"/>
@@ -5558,7 +5573,7 @@
       <c r="AA101" s="11"/>
       <c r="AB101" s="11"/>
     </row>
-    <row r="102" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="18"/>
@@ -5588,7 +5603,7 @@
       <c r="AA102" s="11"/>
       <c r="AB102" s="11"/>
     </row>
-    <row r="103" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="18"/>
@@ -5618,7 +5633,7 @@
       <c r="AA103" s="11"/>
       <c r="AB103" s="11"/>
     </row>
-    <row r="104" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="18"/>
@@ -5648,7 +5663,7 @@
       <c r="AA104" s="11"/>
       <c r="AB104" s="11"/>
     </row>
-    <row r="105" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="18"/>
@@ -5698,30 +5713,30 @@
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="37.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="37.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.875" style="10"/>
-    <col min="3" max="4" width="37.875" style="27"/>
-    <col min="5" max="16384" width="37.875" style="10"/>
+    <col min="1" max="1" width="48.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.88671875" style="10"/>
+    <col min="3" max="4" width="37.88671875" style="27"/>
+    <col min="5" max="16384" width="37.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>162</v>
@@ -5731,7 +5746,7 @@
       </c>
       <c r="D4" s="29"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>28</v>
       </c>
@@ -5743,7 +5758,7 @@
       </c>
       <c r="D5" s="29"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>29</v>
       </c>
@@ -5753,7 +5768,7 @@
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>30</v>
       </c>
@@ -5763,7 +5778,7 @@
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>31</v>
       </c>
@@ -5773,7 +5788,7 @@
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>30</v>
       </c>
@@ -5783,9 +5798,9 @@
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>168</v>
@@ -5793,7 +5808,7 @@
       <c r="C10" s="29"/>
       <c r="D10" s="29"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>33</v>
       </c>
@@ -5803,9 +5818,9 @@
       <c r="C11" s="29"/>
       <c r="D11" s="29"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>170</v>
@@ -5813,7 +5828,7 @@
       <c r="C12" s="29"/>
       <c r="D12" s="29"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>35</v>
       </c>
@@ -5823,7 +5838,7 @@
       <c r="C13" s="29"/>
       <c r="D13" s="29"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
         <v>36</v>
       </c>
@@ -5833,7 +5848,7 @@
       <c r="C14" s="29"/>
       <c r="D14" s="29"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>30</v>
       </c>
@@ -5843,7 +5858,7 @@
       <c r="C15" s="29"/>
       <c r="D15" s="29"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
         <v>37</v>
       </c>
@@ -5853,7 +5868,7 @@
       <c r="C16" s="29"/>
       <c r="D16" s="29"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
         <v>38</v>
       </c>
@@ -5863,7 +5878,7 @@
       <c r="C17" s="29"/>
       <c r="D17" s="29"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>39</v>
       </c>
@@ -5873,7 +5888,7 @@
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
         <v>40</v>
       </c>
@@ -5883,7 +5898,7 @@
       <c r="C19" s="29"/>
       <c r="D19" s="29"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
         <v>41</v>
       </c>
@@ -5893,7 +5908,7 @@
       <c r="C20" s="29"/>
       <c r="D20" s="29"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>42</v>
       </c>
@@ -5903,7 +5918,7 @@
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
         <v>43</v>
       </c>
@@ -5913,7 +5928,7 @@
       <c r="C22" s="29"/>
       <c r="D22" s="29"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
         <v>44</v>
       </c>
@@ -5923,7 +5938,7 @@
       <c r="C23" s="29"/>
       <c r="D23" s="29"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
         <v>198</v>
       </c>
@@ -5933,7 +5948,7 @@
       <c r="C24" s="29"/>
       <c r="D24" s="29"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
         <v>30</v>
       </c>
@@ -5943,7 +5958,7 @@
       <c r="C25" s="29"/>
       <c r="D25" s="29"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
         <v>45</v>
       </c>
@@ -5953,7 +5968,7 @@
       <c r="C26" s="29"/>
       <c r="D26" s="29"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
         <v>199</v>
       </c>
@@ -5963,7 +5978,7 @@
       <c r="C27" s="29"/>
       <c r="D27" s="29"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
         <v>30</v>
       </c>
@@ -5973,7 +5988,7 @@
       <c r="C28" s="29"/>
       <c r="D28" s="29"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
         <v>204</v>
       </c>
@@ -5983,7 +5998,7 @@
       <c r="C29" s="29"/>
       <c r="D29" s="29"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
         <v>196</v>
       </c>
@@ -5993,7 +6008,7 @@
       <c r="C30" s="29"/>
       <c r="D30" s="29"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
         <v>200</v>
       </c>
@@ -6003,7 +6018,7 @@
       <c r="C31" s="29"/>
       <c r="D31" s="29"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
         <v>47</v>
       </c>
@@ -6013,107 +6028,107 @@
       <c r="C32" s="29"/>
       <c r="D32" s="29"/>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C33" s="29"/>
       <c r="D33" s="29"/>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C34" s="29"/>
       <c r="D34" s="29"/>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C35" s="29"/>
       <c r="D35" s="29"/>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C36" s="29"/>
       <c r="D36" s="29"/>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C37" s="29"/>
       <c r="D37" s="29"/>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C38" s="29"/>
       <c r="D38" s="29"/>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C39" s="29"/>
       <c r="D39" s="29"/>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C40" s="29"/>
       <c r="D40" s="29"/>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C41" s="29"/>
       <c r="D41" s="29"/>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C42" s="29"/>
       <c r="D42" s="29"/>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C43" s="29"/>
       <c r="D43" s="29"/>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C44" s="29"/>
       <c r="D44" s="29"/>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C45" s="29"/>
       <c r="D45" s="29"/>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C46" s="29"/>
       <c r="D46" s="29"/>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C47" s="29"/>
       <c r="D47" s="29"/>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C48" s="29"/>
       <c r="D48" s="29"/>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C49" s="29"/>
       <c r="D49" s="29"/>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C50" s="29"/>
       <c r="D50" s="29"/>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C51" s="29"/>
       <c r="D51" s="29"/>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C52" s="29"/>
       <c r="D52" s="29"/>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C53" s="29"/>
       <c r="D53" s="29"/>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C54" s="29"/>
       <c r="D54" s="29"/>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C55" s="29"/>
       <c r="D55" s="29"/>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C56" s="29"/>
       <c r="D56" s="29"/>
     </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C57" s="29"/>
       <c r="D57" s="29"/>
     </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C58" s="29"/>
       <c r="D58" s="29"/>
     </row>
@@ -6129,18 +6144,18 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="C2" sqref="C2:C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="96.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.875" style="3"/>
+    <col min="3" max="3" width="96.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>53</v>
       </c>
@@ -6151,7 +6166,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>55</v>
       </c>
@@ -6162,7 +6177,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>56</v>
       </c>
@@ -6170,10 +6185,10 @@
         <v>59</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>80</v>
       </c>
@@ -6181,12 +6196,12 @@
         <v>61</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>63</v>
@@ -6195,9 +6210,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>65</v>
@@ -6206,9 +6221,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>67</v>
@@ -6217,9 +6232,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>69</v>
@@ -6228,9 +6243,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>71</v>
@@ -6239,7 +6254,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>58</v>
       </c>
@@ -6250,7 +6265,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>60</v>
       </c>
@@ -6261,18 +6276,18 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>64</v>
       </c>
@@ -6280,10 +6295,10 @@
         <v>79</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>66</v>
       </c>
@@ -6294,7 +6309,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>68</v>
       </c>
@@ -6302,10 +6317,10 @@
         <v>86</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>70</v>
       </c>
@@ -6316,7 +6331,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>72</v>
       </c>
@@ -6324,10 +6339,10 @@
         <v>116</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>74</v>
       </c>
@@ -6335,10 +6350,10 @@
         <v>90</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>76</v>
       </c>
@@ -6346,10 +6361,10 @@
         <v>92</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>78</v>
       </c>
@@ -6357,10 +6372,10 @@
         <v>94</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>82</v>
       </c>
@@ -6368,10 +6383,10 @@
         <v>118</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>85</v>
       </c>
@@ -6379,103 +6394,106 @@
         <v>95</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>120</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>99</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C27" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
         <v>81</v>
       </c>

--- a/assets/files/submission/metabobank/MetaboBank_MALDI-MS_metadata.xlsx
+++ b/assets/files/submission/metabobank/MetaboBank_MALDI-MS_metadata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="10236"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23004" windowHeight="8940"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="12" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="257">
   <si>
     <t>Study Title</t>
   </si>
@@ -576,14 +576,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>A unique identifier from a particular labeled extract. Use a sample name of BioSample in most cases.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>If you used a chemical or biochemical marker in the sample such as a radioactive isotope of fluorescent dye which is bound to a material in order to make it detectable in an analytical instrument then enter it here.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Reference to Mass spectrometry protocol.</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -886,6 +878,15 @@
   </si>
   <si>
     <t>Update definitions to MB-IDF-version=2022-06-29 and MB-SDRF-version=2022-02-18.</t>
+  </si>
+  <si>
+    <t>Labeled Extract Name was made optional.</t>
+  </si>
+  <si>
+    <t>A unique identifier from a particular extract chemically labeled by isotopes. Optional for non-labeled samples.</t>
+  </si>
+  <si>
+    <t>When samples are chemically labeled by isotopes (chemical isotope labeling), describe isotopes in the Label column and isotope-labeled compounds in the Comment[isotope_labeled_compound] column.</t>
   </si>
 </sst>
 </file>
@@ -1398,7 +1399,7 @@
   <dimension ref="A1:B91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:B20"/>
+      <selection activeCell="A21" sqref="A21:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1410,52 +1411,52 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="32" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1464,19 +1465,19 @@
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1484,7 +1485,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B16" s="33">
         <v>44741</v>
@@ -1496,13 +1497,13 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B18" s="7"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B19" s="7">
         <v>44509</v>
@@ -1510,15 +1511,19 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B20" s="7">
         <v>44741</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="7"/>
+      <c r="A21" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B21" s="7">
+        <v>44802</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
@@ -1765,13 +1770,13 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B2" s="9"/>
     </row>
@@ -1785,7 +1790,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B5" s="10">
         <v>1.1000000000000001</v>
@@ -1793,7 +1798,7 @@
     </row>
     <row r="6" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1873,7 +1878,7 @@
     </row>
     <row r="17" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -1898,7 +1903,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2054,7 +2059,7 @@
         <v>24</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
@@ -2064,10 +2069,10 @@
     </row>
     <row r="41" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2077,12 +2082,12 @@
     </row>
     <row r="43" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2163,13 +2168,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B2" s="9"/>
     </row>
@@ -2190,19 +2195,19 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>189</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>191</v>
       </c>
       <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C6" s="9"/>
     </row>
@@ -2305,7 +2310,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>134</v>
@@ -2319,13 +2324,13 @@
         <v>135</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -2446,7 +2451,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -2454,23 +2459,23 @@
         <v>25</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -2498,7 +2503,7 @@
   <dimension ref="A1:AB105"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:J1048576"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2536,12 +2541,12 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -2572,7 +2577,7 @@
       <c r="H4" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="24" t="s">
         <v>35</v>
       </c>
       <c r="J4" s="24" t="s">
@@ -2606,7 +2611,7 @@
         <v>44</v>
       </c>
       <c r="T4" s="21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="U4" s="21" t="s">
         <v>30</v>
@@ -2615,7 +2620,7 @@
         <v>45</v>
       </c>
       <c r="W4" s="21" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="X4" s="21" t="s">
         <v>30</v>
@@ -2624,10 +2629,10 @@
         <v>46</v>
       </c>
       <c r="Z4" s="21" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AA4" s="21" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AB4" s="21" t="s">
         <v>47</v>
@@ -5709,8 +5714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5723,12 +5728,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -5736,7 +5741,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>162</v>
@@ -5754,7 +5759,7 @@
         <v>165</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D5" s="29"/>
     </row>
@@ -5800,7 +5805,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>168</v>
@@ -5820,7 +5825,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>170</v>
@@ -5829,11 +5834,11 @@
       <c r="D12" s="29"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="25" t="s">
         <v>35</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>171</v>
+        <v>255</v>
       </c>
       <c r="C13" s="29"/>
       <c r="D13" s="29"/>
@@ -5843,7 +5848,7 @@
         <v>36</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>172</v>
+        <v>256</v>
       </c>
       <c r="C14" s="29"/>
       <c r="D14" s="29"/>
@@ -5853,7 +5858,7 @@
         <v>30</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C15" s="29"/>
       <c r="D15" s="29"/>
@@ -5863,7 +5868,7 @@
         <v>37</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C16" s="29"/>
       <c r="D16" s="29"/>
@@ -5873,7 +5878,7 @@
         <v>38</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C17" s="29"/>
       <c r="D17" s="29"/>
@@ -5883,7 +5888,7 @@
         <v>39</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
@@ -5893,7 +5898,7 @@
         <v>40</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C19" s="29"/>
       <c r="D19" s="29"/>
@@ -5903,7 +5908,7 @@
         <v>41</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C20" s="29"/>
       <c r="D20" s="29"/>
@@ -5913,7 +5918,7 @@
         <v>42</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
@@ -5923,7 +5928,7 @@
         <v>43</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C22" s="29"/>
       <c r="D22" s="29"/>
@@ -5933,17 +5938,17 @@
         <v>44</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C23" s="29"/>
       <c r="D23" s="29"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C24" s="29"/>
       <c r="D24" s="29"/>
@@ -5953,7 +5958,7 @@
         <v>30</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C25" s="29"/>
       <c r="D25" s="29"/>
@@ -5963,17 +5968,17 @@
         <v>45</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C26" s="29"/>
       <c r="D26" s="29"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C27" s="29"/>
       <c r="D27" s="29"/>
@@ -5983,37 +5988,37 @@
         <v>30</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C28" s="29"/>
       <c r="D28" s="29"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C29" s="29"/>
       <c r="D29" s="29"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C30" s="29"/>
       <c r="D30" s="29"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C31" s="29"/>
       <c r="D31" s="29"/>
@@ -6023,7 +6028,7 @@
         <v>47</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C32" s="29"/>
       <c r="D32" s="29"/>
@@ -6185,7 +6190,7 @@
         <v>59</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -6196,12 +6201,12 @@
         <v>61</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>63</v>
@@ -6212,7 +6217,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>65</v>
@@ -6223,7 +6228,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>67</v>
@@ -6234,7 +6239,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>69</v>
@@ -6245,7 +6250,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>71</v>
@@ -6281,7 +6286,7 @@
         <v>62</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>100</v>
@@ -6295,7 +6300,7 @@
         <v>79</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -6317,7 +6322,7 @@
         <v>86</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -6394,12 +6399,12 @@
         <v>95</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>120</v>
@@ -6410,7 +6415,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>122</v>
@@ -6440,7 +6445,7 @@
         <v>101</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">

--- a/assets/files/submission/metabobank/MetaboBank_MALDI-MS_metadata.xlsx
+++ b/assets/files/submission/metabobank/MetaboBank_MALDI-MS_metadata.xlsx
@@ -4,18 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23004" windowHeight="8940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17436" windowHeight="11124"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="12" r:id="rId1"/>
     <sheet name="MB_Study_IDF" sheetId="2" r:id="rId2"/>
-    <sheet name="MB_Study_IDF HELP" sheetId="14" r:id="rId3"/>
-    <sheet name="MB_Assay_SDRF" sheetId="3" r:id="rId4"/>
-    <sheet name="MB_Assay_SDRF HELP" sheetId="15" r:id="rId5"/>
-    <sheet name="ADMIN" sheetId="10" r:id="rId6"/>
+    <sheet name="MB_Assay_SDRF" sheetId="3" r:id="rId3"/>
+    <sheet name="ADMIN" sheetId="10" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">ADMIN!$A$1:$C$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ADMIN!$A$1:$C$39</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="178">
   <si>
     <t>Study Title</t>
   </si>
@@ -414,248 +412,24 @@
   </si>
   <si>
     <t>Scan polarity;Scan m/z range;Instrument;Ion source;Mass analyzer</t>
-  </si>
-  <si>
-    <t>The overall title of the study. This field can only have one value.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A short paragraph describing the study as free-text. This tag can only have one value. The text should clearly explain what you did in your experiment - this will help the curation team to check and process your submission.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A term describing the type of each experimental factor.</t>
-  </si>
-  <si>
-    <t>The experiment design types which are applicable to this study. These terms should come from controlled terms.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A user-defined name for each experimental factor studied by the experiment. These experimental factors represent the variables within the investigation (e.g. growth condition, genotype, organism part). The actual values of these variables will be listed in the SDRF file, in "Ffactor value[&lt;factor name&gt;]" columns.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>The organization affiliation for each person associated with the study.</t>
-  </si>
-  <si>
-    <t>The role(s) performed by each person. Only “submitter” role is permitted.</t>
-  </si>
-  <si>
-    <t>The last name of each submitter. Enter last names of submitters in each column.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>The first name of each submitter. Enter first names of submitters in each column.</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t># Fields without line boxes can have multiple values in corresponding columns.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Field</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Readme</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Example</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Correlation-based Deconvolution (CorrDec) to generate high quality MS2 spectra from data independent acquisition in multi-sample studies (Chemical standards assay)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Data-independent acquisition mass spectrometry (DIA-MS) is essential for information-rich spectral annotations in untargeted metabolomics. However, the acquired MS2 spectra are highly complex, posing significant annotation challenges. We have developed a correlation-based deconvolution (CorrDec) method that uses ion abundance correlations in multi-sample studies using DIA-MS as an update of our MS-DIAL software. CorrDec is based on the assumption that peak intensities of precursor and fragment ions correlate across samples, and exploits this quantitative information to deconvolute complex DIA spectra. CorrDec clearly improved deconvolution of the original MS-DIAL deconvolution method (MS2Dec) in a dilution series of chemical standards and a 224-sample urinary metabolomics study. The primary advantage of CorrDec over MS2Dec is the ability to discriminate co-eluting low-abundance compounds. CorrDec requires the measurement of multiple samples to successfully deconvolute DIA spectra, and our randomized assessment demonstrated that CorrDec can contribute to studies with as few as 10 unique samples. The presented methodology improves compound annotation and identification in multi-sample studies and will be useful for applications in large cohort studies.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>dose response design</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>concentration</t>
-  </si>
-  <si>
-    <t>Mishima</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Tarou</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Fuji</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Saburo</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Rakuju</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Sonoko</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>The PubMed IDs of the publication(s) associated with this study (where available).</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A Digital Object Identifier (DOI) for each publication (where available). When PubMed ID and DOI are available, use PubMed ID.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>The names of the protocols used.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A free-text description of the protocol. This text is included in a single tab-delimited field.</t>
-  </si>
-  <si>
-    <t>A semicolon-delimited list of parameter names.</t>
-  </si>
-  <si>
-    <t>The protocol hardware is the instrument that was use to capture the sample. If multiple instruments are used, they should be separated by (;)</t>
-  </si>
-  <si>
-    <t>The software used by the protocol.</t>
-  </si>
-  <si>
-    <t>The type of the protocol.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>The study types which are applicable to this study. These terms should come from controlled terms.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>The experiment types which are applicable to this study. These terms should come from controlled terms.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Readme</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Sample attributes. Use BioSample attributes.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Reference to Sample collection protocol.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A unique identifier from a particular source. Use a sample name of BioSample in most cases.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A unique identifier from a particular sample. Use a sample name of BioSample in most cases.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Reference to Extraction protocol.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>This column describes how the sample was extracted into a solvent prior to being injected into the analytical instrument of choice.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>If the sample has been subjected to chemical modification prior to injection.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A unique identifier from a particular extract. Use a sample name of BioSample in most cases.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Reference to Mass spectrometry protocol.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>The range used in the assay.</t>
-  </si>
-  <si>
-    <t>Ion source of the instrument where applicable.</t>
-  </si>
-  <si>
-    <t>The analyser/detector of the mass fragments generated during the assay.</t>
-  </si>
-  <si>
-    <t>‘positive’, ‘negative’ or 'alternating'</t>
-  </si>
-  <si>
-    <t>Add the full name of the instrument you used for the MS study in this assay, including the model number.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A unique identifier from a particular assay name. Use a sample name of BioSample in most cases. Technical replicates are differentiated by same sample names, different assay names and technical replicate comments.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Technical replicates such as 1, 2 and 3.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>This is where you should enter the raw (unprocessed) MS data files. Please add the filename in the cell.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Data processing</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>If your data has been processed into one of the open-source raw data formats e.g. mzML, nmrML, then add them here.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Metabolite identification</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A TSV file containing information about the metabolites investigated in the study. Information regarding database accession IDs , where in the spectra the metabolite is found and data pertaining to its abundance within the study samples should be in this file.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>The factor values for an experiment are the values of the variables under investigation. For example, an experiment studying the effect of different temparature (heat stress) on a cell culture would have “temparature” as an experimental variable with “Unit” column to indicate the unit.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>decorative_physalis_leaves</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Person Email</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>Comment[MetaboBank accession]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>MAGE-TAB Version</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Comment[MetaboBank accession]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Version number of MAGE-TAB.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MAGE-TAB Version</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Accession number issed by Metabobank</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Comment[Processed Data File md5]</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -672,38 +446,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Comment[Raw Data File md5]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Comment[Processed Data File md5]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Comment[maf_value_unit]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Enter md5 hash value of Raw Data File here.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MD5 hash value of Processed Data File here.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Enter MD5 hash value of Comment[Metabolite Assignment File here.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Metabolite Assignment File</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Value unit usiing for the experimental data in Metabolite Assignment File. (e.g. "peak area", "pico mole" etc.)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Comment[Submission type]</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -712,10 +454,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t># Study (IDF) fields</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t># Assay (SDRF) columns</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -761,28 +499,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Comment[Related study]</t>
-  </si>
-  <si>
-    <t>Comment[Contributor]</t>
-  </si>
-  <si>
-    <t>Bioinformation and DDBJ Center</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Field</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Extract Name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Parameter Value[Post extraction]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>metabolite target analysis</t>
   </si>
   <si>
@@ -826,10 +542,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t># See HELP tabs to view definition, or see https://www.ddbj.nig.ac.jp/metabobank</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Uneditable</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -842,18 +554,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Related study database ID.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BioProject ID.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Name of each contributer.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t># Submission type: MS Direct injection - MALDI (MALDI-MS)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -883,10 +583,8 @@
     <t>Labeled Extract Name was made optional.</t>
   </si>
   <si>
-    <t>A unique identifier from a particular extract chemically labeled by isotopes. Optional for non-labeled samples.</t>
-  </si>
-  <si>
-    <t>When samples are chemically labeled by isotopes (chemical isotope labeling), describe isotopes in the Label column and isotope-labeled compounds in the Comment[isotope_labeled_compound] column.</t>
+    <t># To view definition, see https://www.ddbj.nig.ac.jp/metabobank/metadata-e.html</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1016,7 +714,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1047,24 +745,9 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1398,9 +1081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:B21"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1411,52 +1092,52 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>247</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>248</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>208</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" s="32" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>240</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>210</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>211</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>212</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>213</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>214</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1465,19 +1146,19 @@
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="4" t="s">
-        <v>215</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="4" t="s">
-        <v>216</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="4" t="s">
-        <v>241</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1485,10 +1166,10 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B16" s="33">
-        <v>44741</v>
+        <v>149</v>
+      </c>
+      <c r="B16" s="26">
+        <v>44848</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1497,13 +1178,13 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>218</v>
+        <v>150</v>
       </c>
       <c r="B18" s="7"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>219</v>
+        <v>151</v>
       </c>
       <c r="B19" s="7">
         <v>44509</v>
@@ -1511,7 +1192,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>253</v>
+        <v>175</v>
       </c>
       <c r="B20" s="7">
         <v>44741</v>
@@ -1519,7 +1200,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>254</v>
+        <v>176</v>
       </c>
       <c r="B21" s="7">
         <v>44802</v>
@@ -1770,13 +1451,13 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>206</v>
+        <v>138</v>
       </c>
       <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>250</v>
+        <v>172</v>
       </c>
       <c r="B2" s="9"/>
     </row>
@@ -1785,12 +1466,12 @@
     </row>
     <row r="4" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>190</v>
+        <v>132</v>
       </c>
       <c r="B5" s="10">
         <v>1.1000000000000001</v>
@@ -1798,7 +1479,7 @@
     </row>
     <row r="6" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>188</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1878,7 +1559,7 @@
     </row>
     <row r="17" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>186</v>
+        <v>130</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -1903,11 +1584,11 @@
         <v>9</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>239</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="23" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="11"/>
@@ -1918,7 +1599,7 @@
       <c r="G21" s="11"/>
     </row>
     <row r="22" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="23" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="11"/>
@@ -1932,7 +1613,7 @@
       <c r="B23" s="12"/>
     </row>
     <row r="24" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="22" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="13" t="s">
@@ -1982,7 +1663,7 @@
       <c r="F26" s="11"/>
     </row>
     <row r="27" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="23" t="s">
         <v>15</v>
       </c>
       <c r="B27" s="11"/>
@@ -1996,7 +1677,7 @@
       <c r="F27" s="11"/>
     </row>
     <row r="28" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="23" t="s">
         <v>16</v>
       </c>
       <c r="B28" s="11"/>
@@ -2006,7 +1687,7 @@
       <c r="F28" s="11"/>
     </row>
     <row r="29" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="23" t="s">
         <v>17</v>
       </c>
       <c r="B29" s="11"/>
@@ -2059,7 +1740,7 @@
         <v>24</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>252</v>
+        <v>174</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
@@ -2069,25 +1750,25 @@
     </row>
     <row r="41" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
-        <v>204</v>
+        <v>137</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>251</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="24" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="25" t="s">
-        <v>243</v>
+      <c r="A43" s="24" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="25" t="s">
-        <v>242</v>
+      <c r="A44" s="24" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2150,356 +1831,6 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E46"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="48.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="48.6640625" style="10"/>
-    <col min="2" max="2" width="34" style="10" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="27.6640625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="24.44140625" style="10" customWidth="1"/>
-    <col min="6" max="16384" width="48.6640625" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="B1" s="9"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="B2" s="9"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="C5" s="9"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="C6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="12"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="14"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="19" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="25" t="s">
-        <v>220</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75000000000000011" bottom="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
-  <pageSetup paperSize="9" scale="50" orientation="landscape" horizontalDpi="4294967294" verticalDpi="4294967294" r:id="rId1"/>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="5" max="1048575" man="1"/>
-  </colBreaks>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB105"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -2541,12 +1872,12 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>207</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>249</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -2568,50 +1899,50 @@
       <c r="E4" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="23" t="s">
         <v>33</v>
       </c>
       <c r="H4" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="J4" s="23" t="s">
         <v>36</v>
       </c>
       <c r="K4" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="24" t="s">
+      <c r="L4" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="24" t="s">
+      <c r="M4" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="N4" s="24" t="s">
+      <c r="N4" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="O4" s="24" t="s">
+      <c r="O4" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="P4" s="24" t="s">
+      <c r="P4" s="23" t="s">
         <v>41</v>
       </c>
       <c r="Q4" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="R4" s="24" t="s">
+      <c r="R4" s="23" t="s">
         <v>43</v>
       </c>
       <c r="S4" s="21" t="s">
         <v>44</v>
       </c>
       <c r="T4" s="21" t="s">
-        <v>193</v>
+        <v>134</v>
       </c>
       <c r="U4" s="21" t="s">
         <v>30</v>
@@ -2620,7 +1951,7 @@
         <v>45</v>
       </c>
       <c r="W4" s="21" t="s">
-        <v>192</v>
+        <v>133</v>
       </c>
       <c r="X4" s="21" t="s">
         <v>30</v>
@@ -2629,10 +1960,10 @@
         <v>46</v>
       </c>
       <c r="Z4" s="21" t="s">
-        <v>194</v>
+        <v>135</v>
       </c>
       <c r="AA4" s="21" t="s">
-        <v>195</v>
+        <v>136</v>
       </c>
       <c r="AB4" s="21" t="s">
         <v>47</v>
@@ -5710,441 +5041,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D58"/>
-  <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="37.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="48.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.88671875" style="10"/>
-    <col min="3" max="4" width="37.88671875" style="27"/>
-    <col min="5" max="16384" width="37.88671875" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="D4" s="29"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="D5" s="29"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-    </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-    </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-    </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-    </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-    </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-    </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-    </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-    </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-    </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-    </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-    </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-    </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-    </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-    </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
-    </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C50" s="29"/>
-      <c r="D50" s="29"/>
-    </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C51" s="29"/>
-      <c r="D51" s="29"/>
-    </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C52" s="29"/>
-      <c r="D52" s="29"/>
-    </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C53" s="29"/>
-      <c r="D53" s="29"/>
-    </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C54" s="29"/>
-      <c r="D54" s="29"/>
-    </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C55" s="29"/>
-      <c r="D55" s="29"/>
-    </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C56" s="29"/>
-      <c r="D56" s="29"/>
-    </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C57" s="29"/>
-      <c r="D57" s="29"/>
-    </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C58" s="29"/>
-      <c r="D58" s="29"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
@@ -6190,7 +5087,7 @@
         <v>59</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>234</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -6201,12 +5098,12 @@
         <v>61</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>235</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>226</v>
+        <v>152</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>63</v>
@@ -6217,7 +5114,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>227</v>
+        <v>153</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>65</v>
@@ -6228,7 +5125,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>228</v>
+        <v>154</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>67</v>
@@ -6239,7 +5136,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>229</v>
+        <v>155</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>69</v>
@@ -6250,7 +5147,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>230</v>
+        <v>156</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>71</v>
@@ -6286,7 +5183,7 @@
         <v>62</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>233</v>
+        <v>159</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>100</v>
@@ -6300,7 +5197,7 @@
         <v>79</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>236</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -6322,7 +5219,7 @@
         <v>86</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>252</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -6399,12 +5296,12 @@
         <v>95</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>237</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>231</v>
+        <v>157</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>120</v>
@@ -6415,7 +5312,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>232</v>
+        <v>158</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>122</v>
@@ -6445,7 +5342,7 @@
         <v>101</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>238</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
